--- a/ML/Windows_H4.xlsx
+++ b/ML/Windows_H4.xlsx
@@ -14,11 +14,9 @@
   <sheets>
     <sheet name="H4-1" sheetId="1" r:id="rId1"/>
     <sheet name="H4-2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'H4-2'!$A$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$B$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'H4-2'!$A$2:$D$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="75">
   <si>
     <t>On Cluster</t>
   </si>
@@ -158,15 +156,6 @@
     <t>'Bedroom Lamp 1'</t>
   </si>
   <si>
-    <t>'Room Baseboard Heater'</t>
-  </si>
-  <si>
-    <t>'Den Baseboard Heater'</t>
-  </si>
-  <si>
-    <t>'Forced-air Heater'</t>
-  </si>
-  <si>
     <t>'Electric Furnace'</t>
   </si>
   <si>
@@ -233,7 +222,37 @@
     <t>below threshold</t>
   </si>
   <si>
-    <t>add to include more features</t>
+    <t>Identical to 4</t>
+  </si>
+  <si>
+    <t>Room Baseboard Heater' (Phase 1)</t>
+  </si>
+  <si>
+    <t>Room Baseboard Heater' (Phase 2)</t>
+  </si>
+  <si>
+    <t>Den Baseboard Heater' (Phase 1)</t>
+  </si>
+  <si>
+    <t>Den Baseboard Heater' (Phase 2)</t>
+  </si>
+  <si>
+    <t>lengthen to include more features</t>
+  </si>
+  <si>
+    <t>Forced-air Heater' (Phase 1)</t>
+  </si>
+  <si>
+    <t>Forced-air Heater' (Phase 2)</t>
+  </si>
+  <si>
+    <t>app is on 2 phases, but signals are equal on each phase</t>
+  </si>
+  <si>
+    <t>others below thresh</t>
+  </si>
+  <si>
+    <t>below thresh</t>
   </si>
 </sst>
 </file>
@@ -307,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,9 +492,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,9 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -780,7 +793,7 @@
   <dimension ref="A2:AB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2382,17 +2395,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB73"/>
+  <dimension ref="A2:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.7265625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="17"/>
-    <col min="3" max="3" width="27.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
@@ -2521,45 +2534,92 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
       <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="7">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>72</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>73</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>73</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="Q5" s="55"/>
     </row>
-    <row r="6" spans="1:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="55"/>
-    </row>
-    <row r="7" spans="1:28" s="70" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="69"/>
+    <row r="6" spans="1:28" s="25" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="1:28" s="46" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
@@ -2569,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
         <v>104</v>
@@ -2605,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7">
         <v>106</v>
@@ -2641,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
         <v>108</v>
@@ -2669,101 +2729,380 @@
       </c>
       <c r="Q10" s="55"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
+    <row r="11" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20">
+        <v>2</v>
+      </c>
+      <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
+      <c r="D11" s="22">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="22">
+        <v>4</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="22">
+        <v>4</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
+      <c r="D12" s="22">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22">
+        <v>7</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="22">
+        <v>8</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="22">
+        <v>8</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="20" t="s">
         <v>41</v>
       </c>
+      <c r="D13" s="22">
+        <v>11</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22">
+        <v>11</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="22">
+        <v>12</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="22">
+        <v>12</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>2</v>
+      </c>
       <c r="B14" s="9">
         <v>4</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
       <c r="B15" s="9">
         <v>4</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
+        <v>2</v>
+      </c>
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
+      <c r="D16" s="7">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
+        <v>2</v>
+      </c>
+      <c r="B17" s="27">
         <v>5</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
+      <c r="C17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
+        <v>2</v>
+      </c>
+      <c r="B18" s="27">
         <v>5</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
+      <c r="C18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="54"/>
+    </row>
+    <row r="19" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27">
+        <v>2</v>
+      </c>
+      <c r="B19" s="27">
         <v>5</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
+      <c r="C19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="54"/>
+    </row>
+    <row r="20" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="20">
         <v>7</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
+      <c r="C20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20">
         <v>7</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
+      <c r="C21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20">
         <v>7</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="C22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="23" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
@@ -2773,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
@@ -2788,7 +3127,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="30"/>
       <c r="P23" s="54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
@@ -2799,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2823,7 +3162,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2847,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7">
         <v>72</v>
@@ -2874,15 +3213,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="64">
+    <row r="27" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63">
         <v>1</v>
       </c>
       <c r="B27" s="9">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="7">
         <v>74</v>
@@ -2912,17 +3251,17 @@
         <v>2</v>
       </c>
       <c r="O27" s="8"/>
-      <c r="P27" s="68"/>
-    </row>
-    <row r="28" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="64">
+      <c r="P27" s="67"/>
+    </row>
+    <row r="28" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="63">
         <v>1</v>
       </c>
       <c r="B28" s="9">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" s="7">
         <v>76</v>
@@ -2952,571 +3291,699 @@
         <v>2</v>
       </c>
       <c r="O28" s="8"/>
-      <c r="P28" s="68"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="17">
-        <v>1</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="P28" s="67"/>
+    </row>
+    <row r="29" spans="1:16" s="68" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="47">
         <v>10</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="64">
         <v>5</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="E29" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="66"/>
+      <c r="G29" s="64">
         <v>5</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="H29" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="66"/>
+      <c r="J29" s="64">
         <v>6</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="7">
+      <c r="K29" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="66"/>
+      <c r="M29" s="64">
         <v>6</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>2</v>
+      <c r="N29" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="66"/>
+      <c r="P29" s="52" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
-        <v>1</v>
-      </c>
-      <c r="B30" s="9">
-        <v>10</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>43</v>
+      <c r="B30" s="9"/>
+      <c r="C30" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="D30" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J30" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M30" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="17">
-        <v>1</v>
+      <c r="A31" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B31" s="9">
         <v>10</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>43</v>
+      <c r="C31" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="D31" s="7">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>9</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7">
+        <v>12</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B32" s="9"/>
+      <c r="C32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="7">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>21</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="7">
+        <v>24</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>24</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9">
+        <v>10</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="7">
         <v>16</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="E33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
         <v>16</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="H33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="7">
         <v>17</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="K33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
         <v>17</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
-        <v>1</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="N33" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B34" s="9"/>
+      <c r="C34" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7">
+        <v>27</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>27</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="7">
+        <v>28</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>28</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="17">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
         <v>11</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="7">
         <v>55</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="E35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
         <v>55</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="H35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7">
         <v>56</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="7">
+      <c r="K35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
         <v>56</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="17">
-        <v>1</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="N35" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="17">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9">
         <v>11</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="7">
         <v>57</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="E36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
         <v>57</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="H36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="7">
         <v>58</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="7">
+      <c r="K36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7">
         <v>58</v>
       </c>
-      <c r="N33" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="17">
-        <v>1</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="N36" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="17">
+        <v>1</v>
+      </c>
+      <c r="B37" s="9">
         <v>11</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="7">
         <v>59</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="E37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
         <v>59</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="H37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7">
         <v>60</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="7">
+      <c r="K37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7">
         <v>60</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
+      <c r="N37" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="17">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
         <v>13</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="64"/>
-      <c r="B36" s="9">
+      <c r="C38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="7">
+        <v>37</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>37</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="7">
+        <v>38</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7">
+        <v>38</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="63">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
         <v>13</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="68"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
+      <c r="C39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7">
+        <v>39</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7">
+        <v>39</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="7">
+        <v>40</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="7">
+        <v>40</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="67"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="17">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
         <v>13</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27">
-        <v>1</v>
-      </c>
-      <c r="B38" s="27">
+      <c r="C40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="7">
+        <v>53</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>53</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="7">
+        <v>54</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7">
+        <v>54</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27">
+        <v>1</v>
+      </c>
+      <c r="B41" s="27">
         <v>14</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27">
-        <v>1</v>
-      </c>
-      <c r="B39" s="27">
+      <c r="C41" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="27">
+        <v>1</v>
+      </c>
+      <c r="B42" s="27">
         <v>14</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="54"/>
-    </row>
-    <row r="40" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27">
-        <v>1</v>
-      </c>
-      <c r="B40" s="27">
+      <c r="C42" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="54"/>
+    </row>
+    <row r="43" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27">
+        <v>1</v>
+      </c>
+      <c r="B43" s="27">
         <v>14</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="54"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="17">
-        <v>1</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="C43" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="54"/>
+    </row>
+    <row r="44" spans="1:16" s="68" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="47">
         <v>15</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C44" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="64">
         <v>13</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="E44" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="66"/>
+      <c r="G44" s="64">
         <v>14</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="H44" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="66"/>
+      <c r="J44" s="64">
         <v>15</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M41" s="7">
+      <c r="K44" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="66"/>
+      <c r="M44" s="64">
         <v>15</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="17">
-        <v>1</v>
-      </c>
-      <c r="B42" s="9">
+      <c r="N44" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="66"/>
+      <c r="P44" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B45" s="9"/>
+      <c r="C45" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="7">
+        <v>25</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>25</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>26</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="7">
+        <v>26</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="9">
         <v>15</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C46" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="7">
         <v>18</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="E46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
         <v>18</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="H46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="7">
         <v>19</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M42" s="7">
+      <c r="K46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
         <v>19</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="17">
-        <v>1</v>
-      </c>
-      <c r="B43" s="9">
+      <c r="N46" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B47" s="9"/>
+      <c r="C47" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="7">
+        <v>29</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>30</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="7">
+        <v>31</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="7">
+        <v>31</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="9">
         <v>15</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C48" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="7">
         <v>20</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="E48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7">
         <v>20</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="7">
+      <c r="H48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="7">
         <v>21</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M43" s="7">
+      <c r="K48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="7">
         <v>21</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="17">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9">
-        <v>16</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="7">
-        <v>88</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7">
-        <v>89</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="7">
-        <v>92</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M44" s="7">
-        <v>92</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="17">
-        <v>1</v>
-      </c>
-      <c r="B45" s="9">
-        <v>16</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="7">
-        <v>99</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7">
-        <v>99</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" s="8">
-        <v>10</v>
-      </c>
-      <c r="J45" s="7">
-        <v>100</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M45" s="7">
-        <v>100</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P45" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="17">
-        <v>1</v>
-      </c>
-      <c r="B46" s="9">
-        <v>16</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="7">
-        <v>101</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7">
-        <v>101</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="8">
-        <v>10</v>
-      </c>
-      <c r="J46" s="7">
-        <v>103</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M46" s="7">
-        <v>103</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B47" s="9">
-        <v>18</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B48" s="9">
-        <v>18</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>55</v>
+      <c r="N48" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
-        <v>18</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>55</v>
+      <c r="B49" s="9"/>
+      <c r="C49" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="7">
+        <v>32</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>33</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="7">
+        <v>34</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="7">
+        <v>34</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -3524,69 +3991,75 @@
         <v>1</v>
       </c>
       <c r="B50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D50" s="7">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="7">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J50" s="7">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M50" s="7">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>1</v>
       </c>
       <c r="B51" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D51" s="7">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="I51" s="8">
+        <v>10</v>
+      </c>
       <c r="J51" s="7">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M51" s="7">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="P51" s="37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -3594,251 +4067,254 @@
         <v>1</v>
       </c>
       <c r="B52" s="9">
+        <v>16</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="7">
+        <v>101</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>101</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="8">
+        <v>10</v>
+      </c>
+      <c r="J52" s="7">
+        <v>103</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="7">
+        <v>103</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="27">
+        <v>2</v>
+      </c>
+      <c r="B53" s="27">
+        <v>18</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="27">
+        <v>2</v>
+      </c>
+      <c r="B54" s="27">
+        <v>18</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="54"/>
+    </row>
+    <row r="55" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="27">
+        <v>2</v>
+      </c>
+      <c r="B55" s="27">
+        <v>18</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="54"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" s="17">
+        <v>1</v>
+      </c>
+      <c r="B56" s="9">
         <v>22</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="C56" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="7">
+        <v>63</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>63</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="7">
+        <v>64</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
+        <v>64</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="17">
+        <v>1</v>
+      </c>
+      <c r="B57" s="9">
+        <v>22</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="7">
+        <v>65</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>65</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="7">
+        <v>66</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7">
+        <v>66</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="17">
+        <v>1</v>
+      </c>
+      <c r="B58" s="9">
+        <v>22</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="7">
         <v>67</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7">
+      <c r="E58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
         <v>67</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="7">
+      <c r="H58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="7">
         <v>68</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="K58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58" s="7">
         <v>68</v>
       </c>
-      <c r="N52" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="17">
-        <v>1</v>
-      </c>
-      <c r="B53" s="9">
-        <v>23</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="7">
-        <v>23</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7">
-        <v>23</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J53" s="7">
-        <v>24</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M53" s="7">
-        <v>24</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P53" s="37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="17">
-        <v>1</v>
-      </c>
-      <c r="B54" s="9">
-        <v>23</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="7">
-        <v>27</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7">
-        <v>27</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="7">
-        <v>28</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7">
-        <v>28</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="17">
-        <v>1</v>
-      </c>
-      <c r="B55" s="9">
-        <v>23</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="7">
-        <v>30</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7">
-        <v>30</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="7">
-        <v>31</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7">
-        <v>31</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27">
-        <v>1</v>
-      </c>
-      <c r="B56" s="27">
-        <v>24</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27">
-        <v>1</v>
-      </c>
-      <c r="B57" s="27">
-        <v>24</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="54"/>
-    </row>
-    <row r="58" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27">
-        <v>1</v>
-      </c>
-      <c r="B58" s="27">
-        <v>24</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="54"/>
+      <c r="N58" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>1</v>
       </c>
       <c r="B59" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D59" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M59" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="P59" s="37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -3846,31 +4322,31 @@
         <v>1</v>
       </c>
       <c r="B60" s="9">
+        <v>23</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="7">
+        <v>27</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7">
+        <v>27</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="7">
         <v>28</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="7">
-        <v>41</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7">
-        <v>41</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J60" s="7">
-        <v>44</v>
-      </c>
       <c r="K60" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M60" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>2</v>
@@ -3881,217 +4357,742 @@
         <v>1</v>
       </c>
       <c r="B61" s="9">
+        <v>23</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="7">
+        <v>30</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7">
+        <v>30</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="7">
+        <v>31</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" s="7">
+        <v>31</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="27">
+        <v>1</v>
+      </c>
+      <c r="B62" s="27">
+        <v>24</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="27">
+        <v>1</v>
+      </c>
+      <c r="B63" s="27">
+        <v>24</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="54"/>
+    </row>
+    <row r="64" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="27">
+        <v>1</v>
+      </c>
+      <c r="B64" s="27">
+        <v>24</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="54"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65" s="17">
+        <v>1</v>
+      </c>
+      <c r="B65" s="9">
         <v>28</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C65" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="7">
+        <v>35</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7">
+        <v>35</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="7">
+        <v>39</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="7">
+        <v>40</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" s="17">
+        <v>1</v>
+      </c>
+      <c r="B66" s="9">
+        <v>28</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="7">
+        <v>41</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
+        <v>41</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="7">
+        <v>44</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66" s="7">
+        <v>45</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" s="17">
+        <v>1</v>
+      </c>
+      <c r="B67" s="9">
+        <v>28</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="7">
+        <v>46</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7">
+        <v>46</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="7">
+        <v>49</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67" s="7">
         <v>50</v>
       </c>
-      <c r="D61" s="7">
-        <v>46</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7">
-        <v>46</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J61" s="7">
+      <c r="N67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O67" s="8">
+        <v>-36</v>
+      </c>
+      <c r="P67" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" s="17">
+        <v>2</v>
+      </c>
+      <c r="B68" s="9">
+        <v>29</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="7">
+        <v>47</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7">
+        <v>47</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="7">
+        <v>48</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68" s="7">
+        <v>48</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" s="17">
+        <v>2</v>
+      </c>
+      <c r="B69" s="9">
+        <v>29</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="7">
         <v>49</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M61" s="7">
+      <c r="E69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7">
+        <v>49</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="7">
         <v>50</v>
       </c>
-      <c r="N61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O61" s="8">
-        <v>-36</v>
-      </c>
-      <c r="P61" s="37" t="s">
+      <c r="K69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M69" s="7">
+        <v>50</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" s="17">
+        <v>2</v>
+      </c>
+      <c r="B70" s="9">
+        <v>29</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="7">
+        <v>51</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7">
+        <v>51</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="7">
+        <v>52</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="7">
+        <v>52</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="68" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="47">
+        <v>30</v>
+      </c>
+      <c r="C71" s="48" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B62" s="9">
-        <v>29</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
-        <v>29</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B64" s="9">
-        <v>29</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A65" s="17">
-        <v>1</v>
-      </c>
-      <c r="B65" s="9">
+      <c r="D71" s="64">
+        <v>1</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="66"/>
+      <c r="G71" s="64">
+        <v>1</v>
+      </c>
+      <c r="H71" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="66"/>
+      <c r="J71" s="64">
+        <v>2</v>
+      </c>
+      <c r="K71" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="66"/>
+      <c r="M71" s="64">
+        <v>2</v>
+      </c>
+      <c r="N71" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="O71" s="66"/>
+      <c r="P71" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
         <v>30</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="7">
-        <v>2</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M65" s="7">
-        <v>2</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A66" s="17">
-        <v>1</v>
-      </c>
-      <c r="B66" s="9">
+      <c r="C72" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="7">
+        <v>13</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>13</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7">
+        <v>14</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" s="7">
+        <v>14</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="9">
         <v>30</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C73" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="7">
         <v>3</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7">
+      <c r="E73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
         <v>3</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="H73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="7">
         <v>4</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M66" s="7">
+      <c r="K73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" s="7">
         <v>4</v>
       </c>
-      <c r="N66" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A67" s="17">
-        <v>1</v>
-      </c>
-      <c r="B67" s="9">
+      <c r="N73" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
         <v>30</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="7">
+      <c r="C74" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="7">
+        <v>15</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7">
+        <v>15</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="7">
+        <v>16</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74" s="7">
+        <v>16</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="9">
+        <v>30</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="7">
         <v>7</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="E75" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7">
         <v>7</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J67" s="7">
+      <c r="H75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="7">
         <v>8</v>
       </c>
-      <c r="K67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M67" s="7">
+      <c r="K75" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M75" s="7">
         <v>8</v>
       </c>
-      <c r="N67" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B68" s="9">
+      <c r="N75" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
+        <v>30</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="7">
+        <v>19</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>19</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="7">
+        <v>20</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M76" s="7">
+        <v>20</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77" s="17">
+        <v>2</v>
+      </c>
+      <c r="B77" s="9">
         <v>34</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C77" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="7">
+        <v>63</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7">
+        <v>63</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J77" s="7">
+        <v>64</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M77" s="7">
+        <v>64</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" s="17">
+        <v>2</v>
+      </c>
+      <c r="B78" s="9">
+        <v>34</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="7">
+        <v>65</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7">
+        <v>65</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="7">
+        <v>66</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M78" s="7">
+        <v>66</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79" s="17">
+        <v>2</v>
+      </c>
+      <c r="B79" s="9">
+        <v>34</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="7">
+        <v>67</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7">
+        <v>67</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="7">
+        <v>68</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M79" s="7">
+        <v>68</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80" s="17">
+        <v>2</v>
+      </c>
+      <c r="B80" s="9">
+        <v>35</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="7">
+        <v>57</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7">
+        <v>57</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
-        <v>34</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="K80" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B70" s="9">
-        <v>34</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B71" s="9">
+      <c r="N80" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81" s="17">
+        <v>2</v>
+      </c>
+      <c r="B81" s="9">
         <v>35</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B72" s="9">
+      <c r="C81" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="7">
+        <v>59</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7">
+        <v>59</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="7">
+        <v>60</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" s="7">
+        <v>60</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" s="17">
+        <v>2</v>
+      </c>
+      <c r="B82" s="9">
         <v>35</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B73" s="9">
-        <v>35</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>57</v>
+      <c r="C82" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="7">
+        <v>61</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7">
+        <v>61</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="7">
+        <v>62</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M82" s="7">
+        <v>62</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4100,571 +5101,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B69"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>22</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>28</v>
-      </c>
-      <c r="B56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>29</v>
-      </c>
-      <c r="B59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>30</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>30</v>
-      </c>
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>34</v>
-      </c>
-      <c r="B65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>34</v>
-      </c>
-      <c r="B66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>35</v>
-      </c>
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B69">
-    <sortState ref="A2:B69">
-      <sortCondition ref="A1:A69"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ML/Windows_H4.xlsx
+++ b/ML/Windows_H4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="H4-1" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
   <si>
     <t>On Cluster</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>Start_cluster</t>
   </si>
   <si>
@@ -117,30 +111,12 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
-    <t>Dishwasher' (phase 1)</t>
-  </si>
-  <si>
-    <t>Dishwasher' (phase 2)</t>
-  </si>
-  <si>
     <t>dishwasher is on 2 phases, signals different on each phase</t>
   </si>
   <si>
-    <t>Stove' (phase 1)</t>
-  </si>
-  <si>
-    <t>Stove' (phase 2)</t>
-  </si>
-  <si>
     <t>stove is on 2 phases, but signals are equal on each phase</t>
   </si>
   <si>
-    <t>Oven' (phase 1)</t>
-  </si>
-  <si>
-    <t>Oven' (phase 2)</t>
-  </si>
-  <si>
     <t>oven is on 2 phases, but signals are equal on each phase</t>
   </si>
   <si>
@@ -225,27 +201,9 @@
     <t>Identical to 4</t>
   </si>
   <si>
-    <t>Room Baseboard Heater' (Phase 1)</t>
-  </si>
-  <si>
-    <t>Room Baseboard Heater' (Phase 2)</t>
-  </si>
-  <si>
-    <t>Den Baseboard Heater' (Phase 1)</t>
-  </si>
-  <si>
-    <t>Den Baseboard Heater' (Phase 2)</t>
-  </si>
-  <si>
     <t>lengthen to include more features</t>
   </si>
   <si>
-    <t>Forced-air Heater' (Phase 1)</t>
-  </si>
-  <si>
-    <t>Forced-air Heater' (Phase 2)</t>
-  </si>
-  <si>
     <t>app is on 2 phases, but signals are equal on each phase</t>
   </si>
   <si>
@@ -253,6 +211,42 @@
   </si>
   <si>
     <t>below thresh</t>
+  </si>
+  <si>
+    <t>'Stove (phase 1)'</t>
+  </si>
+  <si>
+    <t>'Stove (phase 2)'</t>
+  </si>
+  <si>
+    <t>'Oven (phase 1)'</t>
+  </si>
+  <si>
+    <t>'Oven (phase 2)'</t>
+  </si>
+  <si>
+    <t>'Dishwasher (phase 1)'</t>
+  </si>
+  <si>
+    <t>'Dishwasher (phase 2)'</t>
+  </si>
+  <si>
+    <t>'Room Baseboard Heater (Phase 2)'</t>
+  </si>
+  <si>
+    <t>'Room Baseboard Heater (Phase 1)'</t>
+  </si>
+  <si>
+    <t>'Forced-air Heater (Phase 1)'</t>
+  </si>
+  <si>
+    <t>'Forced-air Heater (Phase 2)'</t>
+  </si>
+  <si>
+    <t>'Den Baseboard Heater (Phase 1)'</t>
+  </si>
+  <si>
+    <t>'Den Baseboard Heater (Phase 2)'</t>
   </si>
 </sst>
 </file>
@@ -326,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -380,16 +374,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -438,9 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -460,9 +445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -499,9 +481,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -792,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,13 +792,13 @@
     <col min="13" max="13" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.26953125" style="33" customWidth="1"/>
+    <col min="16" max="16" width="24.26953125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="Q2" s="5"/>
       <c r="V2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -827,104 +806,104 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
       <c r="G3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
       <c r="M3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="34" t="s">
-        <v>27</v>
+      <c r="P3" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="W3" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="P4" s="33"/>
       <c r="Q4" s="12"/>
       <c r="V4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>5</v>
-      </c>
       <c r="Z4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="16" t="s">
         <v>3</v>
-      </c>
-      <c r="AA4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -935,31 +914,43 @@
         <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>11</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>1</v>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>2</v>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
@@ -971,188 +962,290 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>48</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>48</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>51</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>1</v>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>51</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="37">
+        <v>12</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="39">
+        <v>90</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>90</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39">
+        <v>110</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="39">
+        <v>111</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="42"/>
+    </row>
+    <row r="8" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20">
+        <v>12</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="21">
+        <v>56</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>57</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <v>82</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <v>82</v>
+      </c>
+      <c r="N8" s="22">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="24"/>
+    </row>
+    <row r="9" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" s="46" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="39">
-        <v>12</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="41">
-        <v>90</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="41">
-        <v>90</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="B9" s="25">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
         <v>2</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="41">
-        <v>110</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="41">
-        <v>111</v>
-      </c>
-      <c r="N7" s="42" t="s">
+      <c r="B10" s="25">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25">
         <v>2</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="45"/>
-    </row>
-    <row r="8" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="22">
-        <v>56</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="22">
-        <v>57</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="22">
-        <v>82</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="22">
-        <v>82</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
-        <v>2</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="B11" s="25">
         <v>17</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
-        <v>2</v>
-      </c>
-      <c r="B10" s="27">
-        <v>17</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="54"/>
-    </row>
-    <row r="11" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
-        <v>2</v>
-      </c>
-      <c r="B11" s="27">
-        <v>17</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="54"/>
+      <c r="C11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="27">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
@@ -1162,31 +1255,43 @@
         <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>2</v>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>12</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>1</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>12</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>2</v>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -1197,31 +1302,43 @@
         <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>32</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>2</v>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>35</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>1</v>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>35</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>2</v>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
@@ -1232,31 +1349,43 @@
         <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
         <v>96</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>96</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>2</v>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <v>97</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>1</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>97</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>2</v>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -1267,31 +1396,43 @@
         <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>25</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>2</v>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>26</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>1</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>26</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>2</v>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
@@ -1302,31 +1443,43 @@
         <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>60</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>60</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>2</v>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <v>61</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>1</v>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>61</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>2</v>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1337,31 +1490,43 @@
         <v>20</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
         <v>75</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>75</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>2</v>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>77</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>1</v>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>77</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>2</v>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -1372,31 +1537,43 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>27</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>27</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>2</v>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
       </c>
       <c r="J18" s="2">
         <v>28</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>1</v>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>28</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>2</v>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -1407,31 +1584,43 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>58</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>58</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>2</v>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
       </c>
       <c r="J19" s="2">
         <v>59</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>1</v>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>59</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>2</v>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -1442,31 +1631,43 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>73</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>73</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>2</v>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
       </c>
       <c r="J20" s="2">
         <v>74</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>1</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>74</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>2</v>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -1477,31 +1678,43 @@
         <v>25</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>2</v>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>7</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>1</v>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>7</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>2</v>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -1512,31 +1725,43 @@
         <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
         <v>29</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>29</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>2</v>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
       </c>
       <c r="J22" s="2">
         <v>30</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>1</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>30</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>2</v>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -1547,31 +1772,43 @@
         <v>25</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2">
         <v>40</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>40</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>2</v>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
       </c>
       <c r="J23" s="2">
         <v>41</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>1</v>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>41</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>2</v>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -1582,31 +1819,43 @@
         <v>26</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>1</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>12</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>2</v>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
       </c>
       <c r="J24" s="2">
         <v>13</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>1</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>13</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>2</v>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -1617,239 +1866,323 @@
         <v>26</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>1</v>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>14</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>2</v>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <v>15</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>1</v>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>15</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="53" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="47">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="49" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="44">
         <v>27</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="49">
+      <c r="C26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="46">
         <v>29</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="49">
+      <c r="E26" s="47">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="46">
         <v>29</v>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="49">
+      <c r="H26" s="47">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="46">
         <v>40</v>
       </c>
-      <c r="K26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="49">
+      <c r="K26" s="47">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="46">
         <v>40</v>
       </c>
-      <c r="N26" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="53" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="49">
+      <c r="N26" s="47">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44">
+        <v>27</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="46">
         <v>13</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="49">
+      <c r="E27" s="47">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="46">
         <v>13</v>
       </c>
-      <c r="H27" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="49">
+      <c r="H27" s="47">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="46">
         <v>24</v>
       </c>
-      <c r="K27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="49">
+      <c r="K27" s="47">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="46">
         <v>24</v>
       </c>
-      <c r="N27" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52" t="s">
-        <v>38</v>
+      <c r="N27" s="47">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="48" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="9">
         <v>27</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>35</v>
+      <c r="C28" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="D28" s="2">
         <v>78</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>1</v>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>78</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>2</v>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <v>79</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>1</v>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
       </c>
       <c r="M28" s="2">
         <v>79</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>2</v>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C29" s="18" t="s">
-        <v>36</v>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="D29" s="2">
         <v>44</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>1</v>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>44</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>2</v>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
       </c>
       <c r="J29" s="2">
         <v>45</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>1</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>45</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>2</v>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>35</v>
+      <c r="C30" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="D30" s="2">
         <v>112</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>1</v>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>112</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>2</v>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <v>123</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>1</v>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
       </c>
       <c r="M30" s="2">
         <v>123</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>2</v>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C31" s="18" t="s">
-        <v>36</v>
+      <c r="B31" s="9">
+        <v>27</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="D31" s="2">
         <v>83</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>1</v>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
       </c>
       <c r="G31" s="2">
         <v>83</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>2</v>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
       </c>
       <c r="J31" s="2">
         <v>95</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>1</v>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
       </c>
       <c r="M31" s="2">
         <v>95</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>2</v>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -1860,31 +2193,43 @@
         <v>31</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
         <v>18</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>1</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>18</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>2</v>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
       </c>
       <c r="J32" s="2">
         <v>19</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>1</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
       </c>
       <c r="M32" s="2">
         <v>19</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>2</v>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -1895,31 +2240,43 @@
         <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2">
         <v>54</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>1</v>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>54</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>2</v>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>55</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>1</v>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
       </c>
       <c r="M33" s="2">
         <v>55</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>2</v>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -1930,251 +2287,323 @@
         <v>31</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2">
         <v>71</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>1</v>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>71</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>2</v>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>72</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>1</v>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
       </c>
       <c r="M34" s="2">
         <v>72</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="44">
+        <v>32</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="46">
+        <v>1</v>
+      </c>
+      <c r="E35" s="47">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="46">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="53" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="47" t="s">
+      <c r="H35" s="47">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="46">
+        <v>3</v>
+      </c>
+      <c r="K35" s="47">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="46">
+        <v>3</v>
+      </c>
+      <c r="N35" s="47">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="48" t="s">
         <v>28</v>
-      </c>
-      <c r="B35" s="47">
-        <v>32</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="49">
-        <v>1</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="49">
-        <v>2</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="51"/>
-      <c r="J35" s="49">
-        <v>3</v>
-      </c>
-      <c r="K35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="49">
-        <v>3</v>
-      </c>
-      <c r="N35" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>32</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>33</v>
+      <c r="C36" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>1</v>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>2</v>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>3</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>1</v>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
       </c>
       <c r="M36" s="2">
         <v>3</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>2</v>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="9">
         <v>32</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>32</v>
+      <c r="C37" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="D37" s="2">
         <v>41</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>1</v>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>42</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>2</v>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <v>43</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>1</v>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
       </c>
       <c r="M37" s="2">
         <v>43</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>2</v>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B38" s="9">
         <v>32</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>33</v>
+      <c r="C38" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="D38" s="2">
         <v>25</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>1</v>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>25</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>2</v>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
       </c>
       <c r="J38" s="2">
         <v>26</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>1</v>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>26</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>2</v>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" s="9">
         <v>32</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>32</v>
+      <c r="C39" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="D39" s="7">
         <v>62</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="8"/>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
       <c r="G39" s="2">
         <v>63</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="8"/>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
       <c r="J39" s="2">
         <v>64</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="4"/>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
       <c r="M39" s="7">
         <v>64</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="37"/>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="35"/>
     </row>
     <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="9">
         <v>32</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>33</v>
+      <c r="C40" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="D40" s="7">
         <v>36</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="8"/>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
       <c r="G40" s="2">
         <v>37</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="8"/>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
       <c r="J40" s="2">
         <v>38</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="4"/>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
       <c r="M40" s="7">
         <v>38</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O40" s="8"/>
-      <c r="P40" s="37"/>
+      <c r="N40" s="6">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
@@ -2184,33 +2613,44 @@
         <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2">
         <v>6</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>1</v>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>2</v>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
       </c>
       <c r="J41" s="2">
         <v>8</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>1</v>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O41" s="8"/>
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
@@ -2220,33 +2660,44 @@
         <v>33</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2">
         <v>44</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>1</v>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>44</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>2</v>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
       </c>
       <c r="J42" s="2">
         <v>47</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>1</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
       </c>
       <c r="M42" s="7">
         <v>47</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O42" s="8"/>
+      <c r="N42" s="6">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
@@ -2256,99 +2707,184 @@
         <v>33</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2">
         <v>65</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43"/>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
       <c r="G43" s="2">
         <v>65</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>2</v>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
       </c>
       <c r="J43" s="2">
         <v>66</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>1</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
       </c>
       <c r="M43" s="7">
         <v>66</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27">
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25">
         <v>36</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27">
+      <c r="C44" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="26">
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0</v>
+      </c>
+      <c r="H44" s="27">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="26">
+        <v>0</v>
+      </c>
+      <c r="K44" s="27">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="26">
+        <v>0</v>
+      </c>
+      <c r="N44" s="27">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25">
         <v>36</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="27"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="54"/>
-    </row>
-    <row r="46" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27">
+      <c r="C45" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="26">
+        <v>0</v>
+      </c>
+      <c r="E45" s="25">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0</v>
+      </c>
+      <c r="H45" s="27">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="26">
+        <v>0</v>
+      </c>
+      <c r="K45" s="27">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="26">
+        <v>0</v>
+      </c>
+      <c r="N45" s="27">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="50"/>
+    </row>
+    <row r="46" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25">
         <v>36</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="54"/>
+      <c r="C46" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="26">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="26">
+        <v>0</v>
+      </c>
+      <c r="H46" s="27">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="26">
+        <v>0</v>
+      </c>
+      <c r="K46" s="27">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="26">
+        <v>0</v>
+      </c>
+      <c r="N46" s="27">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="50"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E47"/>
@@ -2397,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2418,119 +2954,119 @@
     <col min="13" max="13" width="16.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.26953125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="24.26953125" style="35" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="Q2" s="55"/>
+      <c r="Q2" s="51"/>
       <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="61" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="14" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="60"/>
-      <c r="W3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="61" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="56"/>
+      <c r="W3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>5</v>
+      <c r="E4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>3</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>3</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>3</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="57"/>
-      <c r="V4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="56" t="s">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="53"/>
+      <c r="V4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="56" t="s">
-        <v>5</v>
+      <c r="Z4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="52" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -2541,35 +3077,47 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
         <v>72</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
       </c>
       <c r="G5" s="7">
         <v>72</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>2</v>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <v>73</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>1</v>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="55"/>
-    </row>
-    <row r="6" spans="1:28" s="25" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="51"/>
+    </row>
+    <row r="6" spans="1:28" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -2577,26 +3125,50 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="1:28" s="46" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:28" s="43" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -2604,22 +3176,46 @@
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
+        <v>50</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="39">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
@@ -2629,33 +3225,45 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
         <v>104</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <v>104</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>2</v>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <v>105</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>1</v>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="55"/>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
@@ -2665,33 +3273,45 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7">
         <v>106</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>106</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>2</v>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
       </c>
       <c r="J9" s="7">
         <v>107</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>1</v>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
       </c>
       <c r="M9" s="7">
         <v>107</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="55"/>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
@@ -2701,35 +3321,47 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
         <v>108</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>108</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>2</v>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
       </c>
       <c r="J10" s="7">
         <v>109</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>1</v>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="55"/>
-    </row>
-    <row r="11" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -2737,41 +3369,49 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="22">
+        <v>33</v>
+      </c>
+      <c r="D11" s="21">
         <v>3</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="22">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
         <v>3</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="22">
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
         <v>4</v>
       </c>
-      <c r="K11" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="22">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
         <v>4</v>
       </c>
-      <c r="N11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -2779,39 +3419,47 @@
         <v>3</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="22">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <v>7</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="22">
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
         <v>8</v>
       </c>
-      <c r="K12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="22">
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
         <v>8</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="36"/>
-    </row>
-    <row r="13" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="22">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -2819,37 +3467,45 @@
         <v>3</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="22">
+        <v>33</v>
+      </c>
+      <c r="D13" s="21">
         <v>11</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22">
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
         <v>11</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="22">
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
         <v>12</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="22">
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
         <v>12</v>
       </c>
-      <c r="N13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="36"/>
+      <c r="N13" s="22">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
@@ -2859,31 +3515,43 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>1</v>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
       </c>
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>2</v>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>1</v>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>2</v>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -2894,31 +3562,43 @@
         <v>4</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
         <v>5</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>1</v>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>5</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>2</v>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
       </c>
       <c r="J15" s="7">
         <v>6</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>1</v>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>2</v>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
@@ -2929,108 +3609,192 @@
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
         <v>9</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>1</v>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
       </c>
       <c r="G16" s="7">
         <v>9</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>2</v>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
       </c>
       <c r="J16" s="7">
         <v>10</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>1</v>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27">
+      <c r="B17" s="25">
+        <v>5</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25">
         <v>2</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B18" s="25">
         <v>5</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27">
+      <c r="C18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="50"/>
+    </row>
+    <row r="19" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25">
         <v>2</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B19" s="25">
         <v>5</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="54"/>
-    </row>
-    <row r="19" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27">
-        <v>2</v>
-      </c>
-      <c r="B19" s="27">
-        <v>5</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="54"/>
-    </row>
-    <row r="20" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+      <c r="K19" s="27">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+      <c r="N19" s="27">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="50"/>
+    </row>
+    <row r="20" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>2</v>
       </c>
@@ -3038,25 +3802,49 @@
         <v>7</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+      <c r="N20" s="27">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>2</v>
       </c>
@@ -3064,23 +3852,47 @@
         <v>7</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="36"/>
-    </row>
-    <row r="22" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="27">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <v>0</v>
+      </c>
+      <c r="N21" s="27">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>2</v>
       </c>
@@ -3088,95 +3900,191 @@
         <v>7</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27">
-        <v>1</v>
-      </c>
-      <c r="B23" s="27">
+        <v>48</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="27">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="27">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25">
+        <v>1</v>
+      </c>
+      <c r="B23" s="25">
         <v>8</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27">
-        <v>1</v>
-      </c>
-      <c r="B24" s="27">
+      <c r="C23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="27">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+      <c r="N23" s="27">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25">
+        <v>1</v>
+      </c>
+      <c r="B24" s="25">
         <v>8</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="54"/>
-    </row>
-    <row r="25" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27">
-        <v>1</v>
-      </c>
-      <c r="B25" s="27">
+      <c r="C24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="27">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="27">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="50"/>
+    </row>
+    <row r="25" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="25">
         <v>8</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="54"/>
+      <c r="C25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="27">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="27">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
@@ -3186,313 +4094,415 @@
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7">
         <v>72</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>1</v>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
       </c>
       <c r="G26" s="7">
         <v>72</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>2</v>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
       </c>
       <c r="J26" s="7">
         <v>73</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>1</v>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
       </c>
       <c r="M26" s="7">
         <v>73</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63">
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="59">
         <v>1</v>
       </c>
       <c r="B27" s="9">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7">
         <v>74</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
       <c r="G27" s="7">
         <v>74</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="8"/>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
       <c r="J27" s="7">
         <v>75</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="8"/>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
       <c r="M27" s="7">
         <v>75</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="67"/>
-    </row>
-    <row r="28" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63">
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="62"/>
+    </row>
+    <row r="28" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="59">
         <v>1</v>
       </c>
       <c r="B28" s="9">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7">
         <v>76</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
       <c r="G28" s="7">
         <v>76</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="8"/>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
       <c r="J28" s="7">
         <v>77</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="8"/>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
       <c r="M28" s="7">
         <v>77</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" s="8"/>
-      <c r="P28" s="67"/>
-    </row>
-    <row r="29" spans="1:16" s="68" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="47">
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="62"/>
+    </row>
+    <row r="29" spans="1:16" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="44">
         <v>10</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="64">
+      <c r="C29" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="60">
         <v>5</v>
       </c>
-      <c r="E29" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="64">
+      <c r="E29" s="61">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="60">
         <v>5</v>
       </c>
-      <c r="H29" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="64">
+      <c r="H29" s="61">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="60">
         <v>6</v>
       </c>
-      <c r="K29" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="66"/>
-      <c r="M29" s="64">
+      <c r="K29" s="61">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="60">
         <v>6</v>
       </c>
-      <c r="N29" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" s="66"/>
-      <c r="P29" s="52" t="s">
+      <c r="N29" s="61">
+        <v>1</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>10</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="D30" s="7">
         <v>17</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>1</v>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
       </c>
       <c r="G30" s="7">
         <v>17</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>2</v>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
       </c>
       <c r="J30" s="7">
         <v>18</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>1</v>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>2</v>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="9">
         <v>10</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>67</v>
+      <c r="C31" s="45" t="s">
+        <v>71</v>
       </c>
       <c r="D31" s="7">
         <v>9</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>1</v>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
       </c>
       <c r="G31" s="7">
         <v>9</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>2</v>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
       </c>
       <c r="J31" s="7">
         <v>12</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>1</v>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>2</v>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="18" t="s">
-        <v>68</v>
+      <c r="B32" s="9">
+        <v>10</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="D32" s="7">
         <v>21</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>1</v>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
       </c>
       <c r="G32" s="7">
         <v>21</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>2</v>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
       </c>
       <c r="J32" s="7">
         <v>24</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>1</v>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>2</v>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="9">
         <v>10</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>67</v>
+      <c r="C33" s="45" t="s">
+        <v>71</v>
       </c>
       <c r="D33" s="7">
         <v>16</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>1</v>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
       </c>
       <c r="G33" s="7">
         <v>16</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>2</v>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
       </c>
       <c r="J33" s="7">
         <v>17</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>1</v>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
       </c>
-      <c r="N33" s="6" t="s">
-        <v>2</v>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B34" s="9"/>
-      <c r="C34" s="18" t="s">
-        <v>68</v>
+      <c r="B34" s="9">
+        <v>10</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="D34" s="7">
         <v>27</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>1</v>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
       </c>
       <c r="G34" s="7">
         <v>27</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>2</v>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
       </c>
       <c r="J34" s="7">
         <v>28</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>1</v>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
       </c>
       <c r="M34" s="7">
         <v>28</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>2</v>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -3503,31 +4513,43 @@
         <v>11</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D35" s="7">
         <v>55</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>1</v>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
       </c>
       <c r="G35" s="7">
         <v>55</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>2</v>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
       </c>
       <c r="J35" s="7">
         <v>56</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>1</v>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
       </c>
       <c r="M35" s="7">
         <v>56</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>2</v>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -3538,31 +4560,43 @@
         <v>11</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D36" s="7">
         <v>57</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>1</v>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
       </c>
       <c r="G36" s="7">
         <v>57</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>2</v>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
       </c>
       <c r="J36" s="7">
         <v>58</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>1</v>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
       </c>
       <c r="M36" s="7">
         <v>58</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>2</v>
+      <c r="N36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -3573,31 +4607,43 @@
         <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D37" s="7">
         <v>59</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>1</v>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
       </c>
       <c r="G37" s="7">
         <v>59</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>2</v>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
       </c>
       <c r="J37" s="7">
         <v>60</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>1</v>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>2</v>
+      <c r="N37" s="6">
+        <v>1</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -3608,72 +4654,92 @@
         <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D38" s="7">
         <v>37</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>1</v>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
       </c>
       <c r="G38" s="7">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>2</v>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
       </c>
       <c r="J38" s="7">
         <v>38</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>1</v>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
       </c>
       <c r="M38" s="7">
         <v>38</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="63">
+      <c r="N38" s="6">
+        <v>1</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="59">
         <v>2</v>
       </c>
       <c r="B39" s="9">
         <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D39" s="7">
         <v>39</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="8"/>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
       <c r="G39" s="7">
         <v>39</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="8"/>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
       <c r="J39" s="7">
         <v>40</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="8"/>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
       <c r="M39" s="7">
         <v>40</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="67"/>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+      <c r="P39" s="62"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
@@ -3683,307 +4749,465 @@
         <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D40" s="7">
         <v>53</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>1</v>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
       </c>
       <c r="G40" s="7">
         <v>53</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>2</v>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
       </c>
       <c r="J40" s="7">
         <v>54</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>1</v>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
       </c>
       <c r="M40" s="7">
         <v>54</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27">
-        <v>1</v>
-      </c>
-      <c r="B41" s="27">
+      <c r="N40" s="6">
+        <v>1</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="25">
+        <v>1</v>
+      </c>
+      <c r="B41" s="25">
         <v>14</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27">
-        <v>1</v>
-      </c>
-      <c r="B42" s="27">
+      <c r="C41" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="26">
+        <v>0</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="26">
+        <v>0</v>
+      </c>
+      <c r="K41" s="27">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="26">
+        <v>0</v>
+      </c>
+      <c r="N41" s="27">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+      <c r="P41" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="25">
+        <v>1</v>
+      </c>
+      <c r="B42" s="25">
         <v>14</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="54"/>
-    </row>
-    <row r="43" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27">
-        <v>1</v>
-      </c>
-      <c r="B43" s="27">
+      <c r="C42" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="26">
+        <v>0</v>
+      </c>
+      <c r="E42" s="27">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="26">
+        <v>0</v>
+      </c>
+      <c r="H42" s="27">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="26">
+        <v>0</v>
+      </c>
+      <c r="K42" s="27">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="26">
+        <v>0</v>
+      </c>
+      <c r="N42" s="27">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="50"/>
+    </row>
+    <row r="43" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="25">
+        <v>1</v>
+      </c>
+      <c r="B43" s="25">
         <v>14</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="54"/>
-    </row>
-    <row r="44" spans="1:16" s="68" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="47">
+      <c r="C43" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="26">
+        <v>0</v>
+      </c>
+      <c r="E43" s="27">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="26">
+        <v>0</v>
+      </c>
+      <c r="H43" s="27">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="26">
+        <v>0</v>
+      </c>
+      <c r="K43" s="27">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="26">
+        <v>0</v>
+      </c>
+      <c r="N43" s="27">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+      <c r="P43" s="50"/>
+    </row>
+    <row r="44" spans="1:16" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="44">
         <v>15</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="60">
+        <v>13</v>
+      </c>
+      <c r="E44" s="61">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="60">
+        <v>14</v>
+      </c>
+      <c r="H44" s="61">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="60">
+        <v>15</v>
+      </c>
+      <c r="K44" s="61">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="60">
+        <v>15</v>
+      </c>
+      <c r="N44" s="61">
+        <v>1</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+      <c r="P44" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B45" s="44">
+        <v>15</v>
+      </c>
+      <c r="C45" s="45" t="s">
         <v>70</v>
-      </c>
-      <c r="D44" s="64">
-        <v>13</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="66"/>
-      <c r="G44" s="64">
-        <v>14</v>
-      </c>
-      <c r="H44" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="66"/>
-      <c r="J44" s="64">
-        <v>15</v>
-      </c>
-      <c r="K44" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="66"/>
-      <c r="M44" s="64">
-        <v>15</v>
-      </c>
-      <c r="N44" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="O44" s="66"/>
-      <c r="P44" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B45" s="9"/>
-      <c r="C45" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="D45" s="7">
         <v>25</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>1</v>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
       </c>
       <c r="G45" s="7">
         <v>25</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>2</v>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
       </c>
       <c r="J45" s="7">
         <v>26</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>1</v>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
       </c>
       <c r="M45" s="7">
         <v>26</v>
       </c>
-      <c r="N45" s="6" t="s">
-        <v>2</v>
+      <c r="N45" s="6">
+        <v>1</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="9">
+        <v>26</v>
+      </c>
+      <c r="B46" s="44">
         <v>15</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>70</v>
+      <c r="C46" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="D46" s="7">
         <v>18</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>1</v>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
       </c>
       <c r="G46" s="7">
         <v>18</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>2</v>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0</v>
       </c>
       <c r="J46" s="7">
         <v>19</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>1</v>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>2</v>
+      <c r="N46" s="6">
+        <v>1</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B47" s="9"/>
-      <c r="C47" s="18" t="s">
-        <v>71</v>
+      <c r="B47" s="44">
+        <v>15</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="D47" s="7">
         <v>29</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>1</v>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0</v>
       </c>
       <c r="G47" s="7">
         <v>30</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>2</v>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
       </c>
       <c r="J47" s="7">
         <v>31</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>1</v>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
       </c>
       <c r="M47" s="7">
         <v>31</v>
       </c>
-      <c r="N47" s="6" t="s">
-        <v>2</v>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="9">
+        <v>26</v>
+      </c>
+      <c r="B48" s="44">
         <v>15</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>70</v>
+      <c r="C48" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="D48" s="7">
         <v>20</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>1</v>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
       </c>
       <c r="G48" s="7">
         <v>20</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>2</v>
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0</v>
       </c>
       <c r="J48" s="7">
         <v>21</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>1</v>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
       </c>
       <c r="M48" s="7">
         <v>21</v>
       </c>
-      <c r="N48" s="6" t="s">
-        <v>2</v>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B49" s="9"/>
-      <c r="C49" s="18" t="s">
-        <v>71</v>
+      <c r="B49" s="44">
+        <v>15</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="D49" s="7">
         <v>32</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>1</v>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0</v>
       </c>
       <c r="G49" s="7">
         <v>33</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>2</v>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
       </c>
       <c r="J49" s="7">
         <v>34</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>1</v>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
       </c>
       <c r="M49" s="7">
         <v>34</v>
       </c>
-      <c r="N49" s="6" t="s">
-        <v>2</v>
+      <c r="N49" s="6">
+        <v>1</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -3994,31 +5218,43 @@
         <v>16</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7">
         <v>88</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>1</v>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
       </c>
       <c r="G50" s="7">
         <v>89</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>2</v>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
       </c>
       <c r="J50" s="7">
         <v>92</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>1</v>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
       </c>
       <c r="M50" s="7">
         <v>92</v>
       </c>
-      <c r="N50" s="6" t="s">
-        <v>2</v>
+      <c r="N50" s="6">
+        <v>1</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -4029,19 +5265,22 @@
         <v>16</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D51" s="7">
         <v>99</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>1</v>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
       </c>
       <c r="G51" s="7">
         <v>99</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>2</v>
+      <c r="H51" s="6">
+        <v>1</v>
       </c>
       <c r="I51" s="8">
         <v>10</v>
@@ -4049,17 +5288,23 @@
       <c r="J51" s="7">
         <v>100</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>1</v>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
       </c>
       <c r="M51" s="7">
         <v>100</v>
       </c>
-      <c r="N51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P51" s="37" t="s">
-        <v>69</v>
+      <c r="N51" s="6">
+        <v>1</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+      <c r="P51" s="35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -4070,19 +5315,22 @@
         <v>16</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D52" s="7">
         <v>101</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>1</v>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
       </c>
       <c r="G52" s="7">
         <v>101</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>2</v>
+      <c r="H52" s="6">
+        <v>1</v>
       </c>
       <c r="I52" s="8">
         <v>10</v>
@@ -4090,89 +5338,167 @@
       <c r="J52" s="7">
         <v>103</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>1</v>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
       </c>
       <c r="M52" s="7">
         <v>103</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N52" s="6">
+        <v>1</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27">
+      <c r="B53" s="25">
+        <v>18</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0</v>
+      </c>
+      <c r="E53" s="27">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0</v>
+      </c>
+      <c r="H53" s="27">
+        <v>0</v>
+      </c>
+      <c r="I53" s="28">
+        <v>0</v>
+      </c>
+      <c r="J53" s="26">
+        <v>0</v>
+      </c>
+      <c r="K53" s="27">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="26">
+        <v>0</v>
+      </c>
+      <c r="N53" s="27">
+        <v>0</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="25">
         <v>2</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B54" s="25">
         <v>18</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="27">
+      <c r="C54" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0</v>
+      </c>
+      <c r="E54" s="27">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0</v>
+      </c>
+      <c r="H54" s="27">
+        <v>0</v>
+      </c>
+      <c r="I54" s="28">
+        <v>0</v>
+      </c>
+      <c r="J54" s="26">
+        <v>0</v>
+      </c>
+      <c r="K54" s="27">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="26">
+        <v>0</v>
+      </c>
+      <c r="N54" s="27">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="50"/>
+    </row>
+    <row r="55" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="25">
         <v>2</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B55" s="25">
         <v>18</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="54"/>
-    </row>
-    <row r="55" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="27">
-        <v>2</v>
-      </c>
-      <c r="B55" s="27">
-        <v>18</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="54"/>
+      <c r="C55" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0</v>
+      </c>
+      <c r="E55" s="27">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="26">
+        <v>0</v>
+      </c>
+      <c r="H55" s="27">
+        <v>0</v>
+      </c>
+      <c r="I55" s="28">
+        <v>0</v>
+      </c>
+      <c r="J55" s="26">
+        <v>0</v>
+      </c>
+      <c r="K55" s="27">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="26">
+        <v>0</v>
+      </c>
+      <c r="N55" s="27">
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+      <c r="P55" s="50"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
@@ -4182,31 +5508,43 @@
         <v>22</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D56" s="7">
         <v>63</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>1</v>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
       </c>
       <c r="G56" s="7">
         <v>63</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>2</v>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
       </c>
       <c r="J56" s="7">
         <v>64</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>1</v>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
       </c>
       <c r="M56" s="7">
         <v>64</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>2</v>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -4217,31 +5555,43 @@
         <v>22</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D57" s="7">
         <v>65</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>1</v>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0</v>
       </c>
       <c r="G57" s="7">
         <v>65</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>2</v>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
       </c>
       <c r="J57" s="7">
         <v>66</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>1</v>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
       </c>
       <c r="M57" s="7">
         <v>66</v>
       </c>
-      <c r="N57" s="6" t="s">
-        <v>2</v>
+      <c r="N57" s="6">
+        <v>1</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -4252,31 +5602,43 @@
         <v>22</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D58" s="7">
         <v>67</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>1</v>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
       </c>
       <c r="G58" s="7">
         <v>67</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>2</v>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
       </c>
       <c r="J58" s="7">
         <v>68</v>
       </c>
-      <c r="K58" s="6" t="s">
-        <v>1</v>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
       </c>
       <c r="M58" s="7">
         <v>68</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>2</v>
+      <c r="N58" s="6">
+        <v>1</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -4287,34 +5649,46 @@
         <v>23</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D59" s="7">
         <v>23</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>1</v>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
       </c>
       <c r="G59" s="7">
         <v>23</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>1</v>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
       </c>
       <c r="J59" s="7">
         <v>24</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>1</v>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
       </c>
       <c r="M59" s="7">
         <v>24</v>
       </c>
-      <c r="N59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P59" s="37" t="s">
-        <v>60</v>
+      <c r="N59" s="6">
+        <v>1</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0</v>
+      </c>
+      <c r="P59" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -4325,31 +5699,43 @@
         <v>23</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D60" s="7">
         <v>27</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>1</v>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
       </c>
       <c r="G60" s="7">
         <v>27</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>2</v>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
       </c>
       <c r="J60" s="7">
         <v>28</v>
       </c>
-      <c r="K60" s="6" t="s">
-        <v>1</v>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0</v>
       </c>
       <c r="M60" s="7">
         <v>28</v>
       </c>
-      <c r="N60" s="6" t="s">
-        <v>2</v>
+      <c r="N60" s="6">
+        <v>1</v>
+      </c>
+      <c r="O60" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
@@ -4360,106 +5746,190 @@
         <v>23</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D61" s="7">
         <v>30</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>1</v>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
       </c>
       <c r="G61" s="7">
         <v>30</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>2</v>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0</v>
       </c>
       <c r="J61" s="7">
         <v>31</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>1</v>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0</v>
       </c>
       <c r="M61" s="7">
         <v>31</v>
       </c>
-      <c r="N61" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="27">
-        <v>1</v>
-      </c>
-      <c r="B62" s="27">
+      <c r="N61" s="6">
+        <v>1</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="25">
+        <v>1</v>
+      </c>
+      <c r="B62" s="25">
         <v>24</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="27">
-        <v>1</v>
-      </c>
-      <c r="B63" s="27">
+      <c r="C62" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="26">
+        <v>0</v>
+      </c>
+      <c r="E62" s="27">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="26">
+        <v>0</v>
+      </c>
+      <c r="H62" s="27">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" s="26">
+        <v>0</v>
+      </c>
+      <c r="K62" s="27">
+        <v>0</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0</v>
+      </c>
+      <c r="M62" s="26">
+        <v>0</v>
+      </c>
+      <c r="N62" s="27">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0</v>
+      </c>
+      <c r="P62" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="25">
+        <v>1</v>
+      </c>
+      <c r="B63" s="25">
         <v>24</v>
       </c>
-      <c r="C63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="54"/>
-    </row>
-    <row r="64" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="27">
-        <v>1</v>
-      </c>
-      <c r="B64" s="27">
+      <c r="C63" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="26">
+        <v>0</v>
+      </c>
+      <c r="E63" s="27">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="26">
+        <v>0</v>
+      </c>
+      <c r="H63" s="27">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+      <c r="J63" s="26">
+        <v>0</v>
+      </c>
+      <c r="K63" s="27">
+        <v>0</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0</v>
+      </c>
+      <c r="M63" s="26">
+        <v>0</v>
+      </c>
+      <c r="N63" s="27">
+        <v>0</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0</v>
+      </c>
+      <c r="P63" s="50"/>
+    </row>
+    <row r="64" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="25">
+        <v>1</v>
+      </c>
+      <c r="B64" s="25">
         <v>24</v>
       </c>
-      <c r="C64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="54"/>
+      <c r="C64" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="26">
+        <v>0</v>
+      </c>
+      <c r="E64" s="27">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0</v>
+      </c>
+      <c r="G64" s="26">
+        <v>0</v>
+      </c>
+      <c r="H64" s="27">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="26">
+        <v>0</v>
+      </c>
+      <c r="K64" s="27">
+        <v>0</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0</v>
+      </c>
+      <c r="M64" s="26">
+        <v>0</v>
+      </c>
+      <c r="N64" s="27">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0</v>
+      </c>
+      <c r="P64" s="50"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
@@ -4469,31 +5939,43 @@
         <v>28</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D65" s="7">
         <v>35</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>1</v>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0</v>
       </c>
       <c r="G65" s="7">
         <v>35</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>2</v>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0</v>
       </c>
       <c r="J65" s="7">
         <v>39</v>
       </c>
-      <c r="K65" s="6" t="s">
-        <v>1</v>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0</v>
       </c>
       <c r="M65" s="7">
         <v>40</v>
       </c>
-      <c r="N65" s="6" t="s">
-        <v>2</v>
+      <c r="N65" s="6">
+        <v>1</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -4504,31 +5986,43 @@
         <v>28</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D66" s="7">
         <v>41</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>1</v>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
       </c>
       <c r="G66" s="7">
         <v>41</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>2</v>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0</v>
       </c>
       <c r="J66" s="7">
         <v>44</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>1</v>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="8">
+        <v>0</v>
       </c>
       <c r="M66" s="7">
         <v>45</v>
       </c>
-      <c r="N66" s="6" t="s">
-        <v>2</v>
+      <c r="N66" s="6">
+        <v>1</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -4539,37 +6033,46 @@
         <v>28</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D67" s="7">
         <v>46</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>1</v>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0</v>
       </c>
       <c r="G67" s="7">
         <v>46</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>2</v>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0</v>
       </c>
       <c r="J67" s="7">
         <v>49</v>
       </c>
-      <c r="K67" s="6" t="s">
-        <v>1</v>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="8">
+        <v>0</v>
       </c>
       <c r="M67" s="7">
         <v>50</v>
       </c>
-      <c r="N67" s="6" t="s">
-        <v>2</v>
+      <c r="N67" s="6">
+        <v>1</v>
       </c>
       <c r="O67" s="8">
         <v>-36</v>
       </c>
-      <c r="P67" s="37" t="s">
-        <v>62</v>
+      <c r="P67" s="35" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -4580,31 +6083,43 @@
         <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D68" s="7">
         <v>47</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>1</v>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
       </c>
       <c r="G68" s="7">
         <v>47</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>2</v>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0</v>
       </c>
       <c r="J68" s="7">
         <v>48</v>
       </c>
-      <c r="K68" s="6" t="s">
-        <v>1</v>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="8">
+        <v>0</v>
       </c>
       <c r="M68" s="7">
         <v>48</v>
       </c>
-      <c r="N68" s="6" t="s">
-        <v>2</v>
+      <c r="N68" s="6">
+        <v>1</v>
+      </c>
+      <c r="O68" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -4615,31 +6130,43 @@
         <v>29</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D69" s="7">
         <v>49</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>1</v>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
       </c>
       <c r="G69" s="7">
         <v>49</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>2</v>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0</v>
       </c>
       <c r="J69" s="7">
         <v>50</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>1</v>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="8">
+        <v>0</v>
       </c>
       <c r="M69" s="7">
         <v>50</v>
       </c>
-      <c r="N69" s="6" t="s">
-        <v>2</v>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -4650,73 +6177,93 @@
         <v>29</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D70" s="7">
         <v>51</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>1</v>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0</v>
       </c>
       <c r="G70" s="7">
         <v>51</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>2</v>
+      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+      <c r="I70" s="8">
+        <v>0</v>
       </c>
       <c r="J70" s="7">
         <v>52</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>1</v>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
+        <v>0</v>
       </c>
       <c r="M70" s="7">
         <v>52</v>
       </c>
-      <c r="N70" s="6" t="s">
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="44">
+        <v>30</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="60">
+        <v>1</v>
+      </c>
+      <c r="E71" s="61">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="60">
+        <v>1</v>
+      </c>
+      <c r="H71" s="61">
+        <v>1</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" s="68" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="47">
-        <v>30</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="64">
-        <v>1</v>
-      </c>
-      <c r="E71" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="64">
-        <v>1</v>
-      </c>
-      <c r="H71" s="65" t="s">
+      <c r="K71" s="61">
+        <v>0</v>
+      </c>
+      <c r="L71" s="8">
+        <v>0</v>
+      </c>
+      <c r="M71" s="60">
         <v>2</v>
       </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="64">
-        <v>2</v>
-      </c>
-      <c r="K71" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="L71" s="66"/>
-      <c r="M71" s="64">
-        <v>2</v>
-      </c>
-      <c r="N71" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="O71" s="66"/>
-      <c r="P71" s="52" t="s">
-        <v>72</v>
+      <c r="N71" s="61">
+        <v>1</v>
+      </c>
+      <c r="O71" s="8">
+        <v>0</v>
+      </c>
+      <c r="P71" s="48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -4724,66 +6271,90 @@
         <v>30</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D72" s="7">
         <v>13</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>1</v>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
       </c>
       <c r="G72" s="7">
         <v>13</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>2</v>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0</v>
       </c>
       <c r="J72" s="7">
         <v>14</v>
       </c>
-      <c r="K72" s="6" t="s">
-        <v>1</v>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0</v>
       </c>
       <c r="M72" s="7">
         <v>14</v>
       </c>
-      <c r="N72" s="6" t="s">
-        <v>2</v>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+      <c r="O72" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73" s="9">
         <v>30</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>1</v>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
       </c>
       <c r="G73" s="7">
         <v>3</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>2</v>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0</v>
       </c>
       <c r="J73" s="7">
         <v>4</v>
       </c>
-      <c r="K73" s="6" t="s">
-        <v>1</v>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
       </c>
       <c r="M73" s="7">
         <v>4</v>
       </c>
-      <c r="N73" s="6" t="s">
-        <v>2</v>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
@@ -4791,66 +6362,90 @@
         <v>30</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D74" s="7">
         <v>15</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>1</v>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0</v>
       </c>
       <c r="G74" s="7">
         <v>15</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>2</v>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0</v>
       </c>
       <c r="J74" s="7">
         <v>16</v>
       </c>
-      <c r="K74" s="6" t="s">
-        <v>1</v>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="8">
+        <v>0</v>
       </c>
       <c r="M74" s="7">
         <v>16</v>
       </c>
-      <c r="N74" s="6" t="s">
-        <v>2</v>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B75" s="9">
         <v>30</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D75" s="7">
         <v>7</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>1</v>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
       </c>
       <c r="G75" s="7">
         <v>7</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>2</v>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0</v>
       </c>
       <c r="J75" s="7">
         <v>8</v>
       </c>
-      <c r="K75" s="6" t="s">
-        <v>1</v>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0</v>
       </c>
       <c r="M75" s="7">
         <v>8</v>
       </c>
-      <c r="N75" s="6" t="s">
-        <v>2</v>
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
@@ -4858,31 +6453,43 @@
         <v>30</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D76" s="7">
         <v>19</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>1</v>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0</v>
       </c>
       <c r="G76" s="7">
         <v>19</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>2</v>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="I76" s="8">
+        <v>0</v>
       </c>
       <c r="J76" s="7">
         <v>20</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>1</v>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0</v>
       </c>
       <c r="M76" s="7">
         <v>20</v>
       </c>
-      <c r="N76" s="6" t="s">
-        <v>2</v>
+      <c r="N76" s="6">
+        <v>1</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
@@ -4893,31 +6500,43 @@
         <v>34</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D77" s="7">
         <v>63</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>1</v>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0</v>
       </c>
       <c r="G77" s="7">
         <v>63</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>2</v>
+      <c r="H77" s="6">
+        <v>1</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0</v>
       </c>
       <c r="J77" s="7">
         <v>64</v>
       </c>
-      <c r="K77" s="6" t="s">
-        <v>1</v>
+      <c r="K77" s="6">
+        <v>0</v>
+      </c>
+      <c r="L77" s="8">
+        <v>0</v>
       </c>
       <c r="M77" s="7">
         <v>64</v>
       </c>
-      <c r="N77" s="6" t="s">
-        <v>2</v>
+      <c r="N77" s="6">
+        <v>1</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
@@ -4928,31 +6547,43 @@
         <v>34</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D78" s="7">
         <v>65</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>1</v>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0</v>
       </c>
       <c r="G78" s="7">
         <v>65</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>2</v>
+      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0</v>
       </c>
       <c r="J78" s="7">
         <v>66</v>
       </c>
-      <c r="K78" s="6" t="s">
-        <v>1</v>
+      <c r="K78" s="6">
+        <v>0</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0</v>
       </c>
       <c r="M78" s="7">
         <v>66</v>
       </c>
-      <c r="N78" s="6" t="s">
-        <v>2</v>
+      <c r="N78" s="6">
+        <v>1</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
@@ -4963,31 +6594,43 @@
         <v>34</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D79" s="7">
         <v>67</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>1</v>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0</v>
       </c>
       <c r="G79" s="7">
         <v>67</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>2</v>
+      <c r="H79" s="6">
+        <v>1</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0</v>
       </c>
       <c r="J79" s="7">
         <v>68</v>
       </c>
-      <c r="K79" s="6" t="s">
-        <v>1</v>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="8">
+        <v>0</v>
       </c>
       <c r="M79" s="7">
         <v>68</v>
       </c>
-      <c r="N79" s="6" t="s">
-        <v>2</v>
+      <c r="N79" s="6">
+        <v>1</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
@@ -4998,34 +6641,46 @@
         <v>35</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D80" s="7">
         <v>57</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>1</v>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0</v>
       </c>
       <c r="G80" s="7">
         <v>57</v>
       </c>
-      <c r="H80" s="6" t="s">
-        <v>2</v>
+      <c r="H80" s="6">
+        <v>1</v>
+      </c>
+      <c r="I80" s="8">
+        <v>0</v>
       </c>
       <c r="J80" s="7">
         <v>58</v>
       </c>
-      <c r="K80" s="6" t="s">
-        <v>1</v>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
+      <c r="L80" s="8">
+        <v>0</v>
       </c>
       <c r="M80" s="7">
         <v>58</v>
       </c>
-      <c r="N80" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N80" s="6">
+        <v>1</v>
+      </c>
+      <c r="O80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>2</v>
       </c>
@@ -5033,34 +6688,46 @@
         <v>35</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D81" s="7">
         <v>59</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>1</v>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0</v>
       </c>
       <c r="G81" s="7">
         <v>59</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>2</v>
+      <c r="H81" s="6">
+        <v>1</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0</v>
       </c>
       <c r="J81" s="7">
         <v>60</v>
       </c>
-      <c r="K81" s="6" t="s">
-        <v>1</v>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81" s="8">
+        <v>0</v>
       </c>
       <c r="M81" s="7">
         <v>60</v>
       </c>
-      <c r="N81" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N81" s="6">
+        <v>1</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>2</v>
       </c>
@@ -5068,31 +6735,43 @@
         <v>35</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D82" s="7">
         <v>61</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>1</v>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0</v>
       </c>
       <c r="G82" s="7">
         <v>61</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>2</v>
+      <c r="H82" s="6">
+        <v>1</v>
+      </c>
+      <c r="I82" s="8">
+        <v>0</v>
       </c>
       <c r="J82" s="7">
         <v>62</v>
       </c>
-      <c r="K82" s="6" t="s">
-        <v>1</v>
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0</v>
       </c>
       <c r="M82" s="7">
         <v>62</v>
       </c>
-      <c r="N82" s="6" t="s">
-        <v>2</v>
+      <c r="N82" s="6">
+        <v>1</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5100,5 +6779,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ML/Windows_H4.xlsx
+++ b/ML/Windows_H4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="H4-1" sheetId="1" r:id="rId1"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,7 +1081,7 @@
         <v>3.7589999999999999</v>
       </c>
       <c r="R5" s="3">
-        <v>4.4950000000000001</v>
+        <v>4.7460000000000004</v>
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="21"/>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="3">
-        <v>4.944</v>
+        <v>5.4690000000000003</v>
       </c>
       <c r="R34" s="3">
         <v>1.8979999999999999</v>
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="Q39" s="3">
-        <v>4.59</v>
+        <v>4.6289999999999996</v>
       </c>
       <c r="R39" s="3">
-        <v>4.6669999999999998</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -3297,7 +3297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>

--- a/ML/Windows_H4.xlsx
+++ b/ML/Windows_H4.xlsx
@@ -748,7 +748,7 @@
   <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
